--- a/模块管理.xlsx
+++ b/模块管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="23010" windowHeight="8295"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="23325" windowHeight="4845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,42 @@
   </si>
   <si>
     <t>通用设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店务行政管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdministrativeManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinApplyManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职申请审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门岗位管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrgManage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,15 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -443,19 +482,72 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/模块管理.xlsx
+++ b/模块管理.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="23325" windowHeight="4845"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="21750" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EmployeeManage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>店务行政管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AdministrativeManage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,14 +76,22 @@
   </si>
   <si>
     <t>OrgManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +143,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -445,7 +452,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,7 +462,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -477,65 +484,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1">
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1">
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" customFormat="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" customFormat="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -556,12 +563,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -570,12 +577,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
